--- a/InputFiles/CDS/TC09_CDS_Filter_Prim_Diag_Anaplasticmedulloblastoma.xlsx
+++ b/InputFiles/CDS/TC09_CDS_Filter_Prim_Diag_Anaplasticmedulloblastoma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0717new\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation0829\Commons_Automation\InputFiles\CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6080F50-7234-4102-8B64-F63FEA51E5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21285415-BBD3-4AB2-9B37-B5085ECE666B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE70FEB1-7084-4373-B676-EB3693A27A7B}"/>
   </bookViews>
@@ -68,14 +68,56 @@
     <t>TC09_CDS_Filter_Prim_Diag_Anaplasticmedulloblastoma_WebData.xlsx</t>
   </si>
   <si>
+    <t>CALL{
+    MATCH (p:participant)--&gt;(s:study)
+    OPTIONAL MATCH (samp:sample)--&gt;(p)
+    OPTIONAL MATCH (samp)&lt;--(f:file)
+    OPTIONAL MATCH (f)&lt;--(g:genomic_info)
+    OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+    WITH s, p, samp, f, g, diag
+   WHERE diag.primary_diagnosis in ['Anaplastic Medulloblastoma']
+    RETURN 
+        count(distinct p) AS num_participants
+}
+WITH num_participants
+CALL {
+    MATCH (samp:sample)--&gt;(p:participant)--&gt;(s)
+    OPTIONAL MATCH (samp)&lt;--(f:file)
+    OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+    OPTIONAL MATCH (f)&lt;--(g:genomic_info)
+    OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+    WITH s, p, samp, f, g, diag
+    WHERE diag.primary_diagnosis in ['Anaplastic Medulloblastoma']
+    RETURN 
+        count(distinct samp) AS num_samples
+}
+WITH num_participants, num_samples
+CALL {
+    MATCH (f:file)--&gt;(s:study)
+    OPTIONAL MATCH (f)&lt;--(g:genomic_info)
+    OPTIONAL MATCH (samp:sample)&lt;--(f)
+    OPTIONAL MATCH (p:participant)&lt;--(samp)
+    OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+    WITH s, p, samp, f, g, diag
+    WHERE diag.primary_diagnosis in ['Anaplastic Medulloblastoma']
+    RETURN 
+        count(distinct s) AS num_studies,
+        count(distinct f) AS num_files
+}
+RETURN 
+    num_studies AS Studies,
+    num_participants AS Participants,
+    num_samples AS Samples,
+    num_files AS `Files`</t>
+  </si>
+  <si>
     <t>MATCH (p:participant)--&gt;(s:study)
 OPTIONAL MATCH (samp:sample)--&gt;(p)
 OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
 OPTIONAL MATCH (samp)&lt;--(f:file)
 OPTIONAL MATCH (f)&lt;--(g:genomic_info)
 WITH s, p, samp, f, g, diag
-WHERE diag.primary_diagnosis in ['Anaplastic medulloblastoma']
-WITH p
+WHERE diag.primary_diagnosis in ['Anaplastic Medulloblastoma']
 OPTIONAL MATCH (p)--&gt;(s:study)
 OPTIONAL MATCH (samp:sample)--&gt;(p)
 WITH s, p, apoc.coll.sort(collect(distinct samp.sample_id)) as samp
@@ -95,7 +137,7 @@
 OPTIONAL MATCH (f)&lt;--(g:genomic_info)
 OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
 WITH s, p, samp, f, g, diag
-WHERE diag.primary_diagnosis in ['Anaplastic medulloblastoma']
+WHERE diag.primary_diagnosis in ['Anaplastic Medulloblastoma']
 WITH DISTINCT f, s, p, samp
 RETURN
     coalesce(f.file_name, '') as `File Name`,
@@ -113,7 +155,7 @@
 OPTIONAL MATCH (f)&lt;--(g:genomic_info)
 OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
 WITH s, p, samp, f, g, diag
-WHERE diag.primary_diagnosis in ['Anaplastic medulloblastoma']
+WHERE diag.primary_diagnosis in ['Anaplastic Medulloblastoma']
 WITH DISTINCT s, p, samp
 RETURN
     coalesce(samp.sample_id, '') as `Sample ID`,
@@ -124,49 +166,6 @@
     coalesce(samp.sample_type,'') as `Analyte Type`
 ORDER BY samp.sample_id 
 LIMIT 100</t>
-  </si>
-  <si>
-    <t>CALL{
-    MATCH (p:participant)--&gt;(s:study)
-    OPTIONAL MATCH (samp:sample)--&gt;(p)
-    OPTIONAL MATCH (samp)&lt;--(f:file)
-    OPTIONAL MATCH (f)&lt;--(g:genomic_info)
-    OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
-    WITH s, p, samp, f, g, diag
-   WHERE diag.primary_diagnosis in ['Anaplastic medulloblastoma']
-    RETURN 
-        count(distinct p) AS num_participants
-}
-WITH num_participants
-CALL {
-    MATCH (samp:sample)--&gt;(p:participant)--&gt;(s)
-    OPTIONAL MATCH (samp)&lt;--(f:file)
-    OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
-    OPTIONAL MATCH (f)&lt;--(g:genomic_info)
-    OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
-    WITH s, p, samp, f, g, diag
-    WHERE diag.primary_diagnosis in ['Anaplastic medulloblastoma']
-    RETURN 
-        count(distinct samp) AS num_samples
-}
-WITH num_participants, num_samples
-CALL {
-    MATCH (f:file)--&gt;(s:study)
-    OPTIONAL MATCH (f)&lt;--(g:genomic_info)
-    OPTIONAL MATCH (samp:sample)&lt;--(f)
-    OPTIONAL MATCH (p:participant)&lt;--(samp)
-    OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
-    WITH s, p, samp, f, g, diag
-    WHERE diag.primary_diagnosis in ['Anaplastic medulloblastoma']
-    RETURN 
-        count(distinct s) AS num_studies,
-        count(distinct f) AS num_files
-}
-RETURN 
-    num_studies AS Studies,
-    num_participants AS Participants,
-    num_samples AS Samples,
-    num_files AS `Files`</t>
   </si>
 </sst>
 </file>
@@ -533,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C1E23E-8C31-4CAE-B12D-EF265392AE98}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -568,10 +567,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -585,10 +584,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -602,10 +601,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
